--- a/server/text_preproc_info/sortedabbriviations.xlsx
+++ b/server/text_preproc_info/sortedabbriviations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,12 +451,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>чизел</t>
+          <t>ячм.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>чизлование</t>
+          <t>ячмень</t>
         </is>
       </c>
     </row>
@@ -466,12 +466,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>урож</t>
+          <t>ячм</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>урожайность</t>
+          <t>ячмень</t>
         </is>
       </c>
     </row>
@@ -481,12 +481,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>тр</t>
+          <t>чизел.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>травы</t>
+          <t>чизлование</t>
         </is>
       </c>
     </row>
@@ -496,12 +496,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>св</t>
+          <t>чизел</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>свекла</t>
+          <t>чизлование</t>
         </is>
       </c>
     </row>
@@ -511,12 +511,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>сах/свёклу</t>
+          <t>форм.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>сахарная свекла</t>
+          <t>формирование</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>сах/свеклу</t>
+          <t>форм</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>сахарная свекла</t>
+          <t>формирование</t>
         </is>
       </c>
     </row>
@@ -541,12 +541,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>сах</t>
+          <t>урож.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>сахарная</t>
+          <t>урожайность</t>
         </is>
       </c>
     </row>
@@ -556,12 +556,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>рапс</t>
+          <t>урож</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>рапс зимый</t>
+          <t>урожайность</t>
         </is>
       </c>
     </row>
@@ -571,12 +571,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>пш</t>
+          <t>тр.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>пшеница</t>
+          <t>травы</t>
         </is>
       </c>
     </row>
@@ -586,12 +586,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>под</t>
+          <t>тр</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>подготовка</t>
+          <t>травы</t>
         </is>
       </c>
     </row>
@@ -601,12 +601,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>по</t>
+          <t>ссв</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>подразделение</t>
+          <t>сахарная свекла</t>
         </is>
       </c>
     </row>
@@ -616,12 +616,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>пах</t>
+          <t>сзр.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>пахота</t>
+          <t>срадство защиты растений</t>
         </is>
       </c>
     </row>
@@ -631,12 +631,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>отд</t>
+          <t>сзр</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>отделение</t>
+          <t>срадство защиты растений</t>
         </is>
       </c>
     </row>
@@ -646,12 +646,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>отд</t>
+          <t>сев.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>отделение</t>
+          <t>посев</t>
         </is>
       </c>
     </row>
@@ -661,12 +661,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>оз</t>
+          <t>сев</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>озимая</t>
+          <t>посев</t>
         </is>
       </c>
     </row>
@@ -676,12 +676,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>мн</t>
+          <t>св.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>многолетние</t>
+          <t>свекла</t>
         </is>
       </c>
     </row>
@@ -691,12 +691,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>мин</t>
+          <t>св</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>минеральные</t>
+          <t>свекла</t>
         </is>
       </c>
     </row>
@@ -706,12 +706,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>кук/свёклу</t>
+          <t>сах/свёклу.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>кукурузная свекла</t>
+          <t>сахарная свекла</t>
         </is>
       </c>
     </row>
@@ -721,12 +721,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>кук/свеклу</t>
+          <t>сах/свёклу</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>кукурузная свекла</t>
+          <t>сахарная свекла</t>
         </is>
       </c>
     </row>
@@ -736,12 +736,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>диск-ие</t>
+          <t>сах/свёкла.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>дискование</t>
+          <t>сахарная свекла</t>
         </is>
       </c>
     </row>
@@ -751,12 +751,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>диск</t>
+          <t>сах/свёкла</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>дискование</t>
+          <t>сахарная свекла</t>
         </is>
       </c>
     </row>
@@ -766,12 +766,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>вырав-ие</t>
+          <t>сах/свёкл.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>выравнивание</t>
+          <t>сахарная свекла</t>
         </is>
       </c>
     </row>
@@ -781,12 +781,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>вал</t>
+          <t>сах/свёкл</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>валовый</t>
+          <t>сахарная свекла</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>\</t>
+          <t>сах/свеклу.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t> </t>
+          <t>сахарная свекла</t>
         </is>
       </c>
     </row>
@@ -811,12 +811,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2-я</t>
+          <t>сах/свеклу</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>вторая</t>
+          <t>сахарная свекла</t>
         </is>
       </c>
     </row>
@@ -826,12 +826,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2-е</t>
+          <t>сах/свекл.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>второе</t>
+          <t>сахарная свекла</t>
         </is>
       </c>
     </row>
@@ -841,12 +841,1647 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>сах/свекл</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t> </t>
+          <t>сахарная свекла</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>сах/св.</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>сахарная свекла</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>сах/св</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>сахарная свекла</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>сах.св..</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>сахарная свекла</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>сах.св.</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>сахарная свекла</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>сах..</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>сахарная</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>сах.</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>сахарная</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>сах</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>сахарная</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>с.св.</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>сахарная свекла</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>с.св</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>сахарная свекла</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>с..св.</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>сахарная свекла</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>с.. св.</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>сахарная свекла</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>с. св.</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>сахарная свекла</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>с. св</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>сахарная свекла</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>с св</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>сахарная свекла</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>рапс.</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>рапс</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>рапс</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>рапс</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>пшен.</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>пшеница</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>пшен</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>пшеница</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>пш.</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>пшеница</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>пш</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>пшеница</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>прокат.</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>прокатывание</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>прокат</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>прокатывание</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>предп.</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>предпосевная</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>предп</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>предпосевная</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>пред.</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>предпосевная</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>пред</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>предпосевная</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>подс.</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>подсолнухи</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>подс</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>подсолнухи</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>под/г.</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>подготовка грунта</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>под/г</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>подготовка грунта</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>пах.</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>пахота</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>пах</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>пахота</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>отцтр.</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>отцовские травы</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>отцтр</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>отцовские травы</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>отцт.</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>отцовские травы</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>отцт</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>отцовские травы</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>отц.тр..</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>отцовские травы</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>отц.тр.</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>отцовские травы</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>отц.т..</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>отцовские травы</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>отц.т.</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>отцовские травы</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>отц. тр..</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>отцовские травы</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>отц. тр.</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>отцовские травы</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>отц. т..</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>отцовские травы</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>отц. т.</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>отцовские травы</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>отц.</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>отцовские травы</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>отц тр.</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>отцовские травы</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>отц тр</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>отцовские травы</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>отц т.</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>отцовские травы</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>отц т</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>отцовские травы</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>отц</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>отцовские травы</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>отд.</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>отделение</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>отд</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>отделение</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>озп</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>озимая пшеница</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>оз.п.</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>озимая пшеница</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>оз.п</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>озимая пшеница</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>оз..п.</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>озимая пшеница</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>оз.. п.</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>озимая пшеница</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>оз. п.</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>озимая пшеница</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>оз. п</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>озимая пшеница</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>оз.</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>озимая</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>оз п</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>озимая пшеница</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>оз</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>озимая</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>мн.</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>многолетние</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>мн</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>многолетние</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>мин.</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>минеральные</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>мин</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>минеральные</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>культ..</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>культура.</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>культ.</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>культура.</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>культ</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>культура</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>кукс</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>кукурузный силос</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>кук/силос.</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>кукурузный силос</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>кук/силос</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>кукурузный силос</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>кук/сил.</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>кукурузный силос</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>кук/сил</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>кукурузный силос</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>кук/свёклу.</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>кукурузная свекла</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>кук/свёклу</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>кукурузная свекла</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>кук/свеклу.</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>кукурузная свекла</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>кук/свеклу</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>кукурузная свекла</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>кук/зерно.</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>кукурузное зерно</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>кук/зерно</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>кукурузное зерно</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>кук/зерн.</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>кукурузное зерно</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>кук/зерн</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>кукурузное зерно</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>кук/з.</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>кукурузное зерно</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>кук/з</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>кукурузное зерно</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>кук.с.</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>кукурузный силос</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>кук. с.</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>кукурузный силос</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>кук.</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>кукурузный</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>кук с</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>кукурузный силос</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>кук</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>кукурузный</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>дисков.</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>дискование</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>дисков</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>дискование</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>диск.</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>дискование</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>диск-ие.</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>дискование</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>диск-ие</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>дискование</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>диск</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>дискование</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>выравн.</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>выравнивание</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>выравн</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>выравнивание</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>вырав.</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>выравнивание</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>вырав-ие.</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>выравнивание</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>вырав-ие</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>выравнивание</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>вырав</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>выравнивание</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>выкаш.</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>выкашивание</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>выкаш</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>выкашивание</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>вал.</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>валовый</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>вал</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>валовый</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>2-я.</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>вторая</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>2-я</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>вторая</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>2-е.</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>второе</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>2-е</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>второе</t>
         </is>
       </c>
     </row>
